--- a/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>-1.967686265032559</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.446168612198563</v>
+        <v>-2.446168612198557</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-2.088861271872283</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.198133867860457</v>
+        <v>-6.385358747917305</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.11517277388351</v>
+        <v>-6.383625962032589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.077114086710428</v>
+        <v>-4.970466765361194</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.95593537879666</v>
+        <v>3.009101739905622</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.575793381870865</v>
+        <v>1.580452179901212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.297490872124674</v>
+        <v>1.210013739137779</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>-0.06504910398996046</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.06269893882862405</v>
+        <v>-0.0626989388286239</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.05928855582100998</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2191196258993327</v>
+        <v>-0.1998918469758294</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1685362212587773</v>
+        <v>-0.1537217632339821</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.13811792296771</v>
+        <v>-0.1355334697557904</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1091409680897962</v>
+        <v>0.1106425959968601</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.0431818782826302</v>
+        <v>0.04252410726694785</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03862863682141721</v>
+        <v>0.03542024641227178</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-5.171237222532158</v>
+        <v>-5.171237222532156</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>-6.516219494979808</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.821770608385944</v>
+        <v>-5.821770608385942</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.191527144208473</v>
+        <v>-7.329796802254787</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.162940054669832</v>
+        <v>-8.934707214806421</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.39449915348451</v>
+        <v>-7.274858816992848</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-3.039932002381608</v>
+        <v>-2.976979085988029</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.278693903358906</v>
+        <v>-4.406204351411971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.313341647202096</v>
+        <v>-4.276409790702395</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.3195465807096021</v>
+        <v>-0.319546580709602</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>-0.333081193569028</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3263973089952335</v>
+        <v>-0.3263973089952333</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4173509938368865</v>
+        <v>-0.4270418120519199</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4290431154462791</v>
+        <v>-0.420360546688759</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.392074244849121</v>
+        <v>-0.388479731340924</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2028000284878895</v>
+        <v>-0.2055704284654797</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2355647215116694</v>
+        <v>-0.2461084848993501</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2546301640756976</v>
+        <v>-0.2509422769026883</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-2.254990613641918</v>
+        <v>-2.254990613641916</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-0.6926899192999408</v>
+        <v>-0.6926899192999394</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.477221458351352</v>
+        <v>-1.477221458351351</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.740815398456985</v>
+        <v>-6.391775315901346</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.087408137849115</v>
+        <v>-3.985775920176702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.767073654296879</v>
+        <v>-3.966525880259323</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.394853042833064</v>
+        <v>1.12317624845936</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.501110541995826</v>
+        <v>2.420541159145907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7518567472652246</v>
+        <v>0.8533120254674178</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.2007552143547967</v>
+        <v>-0.2007552143547965</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.07616502466460444</v>
+        <v>-0.07616502466460429</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1453587023539373</v>
+        <v>-0.1453587023539371</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4418457848769626</v>
+        <v>-0.454943197466825</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3642760757769761</v>
+        <v>-0.3509173129302306</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3334020806134564</v>
+        <v>-0.3379859572431969</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1508850709166498</v>
+        <v>0.1454379755385407</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3807189319890791</v>
+        <v>0.3489452516627267</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.09095021615473746</v>
+        <v>0.1050793181962438</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.82915094834541</v>
+        <v>-6.822439613025505</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.878041203042894</v>
+        <v>-7.997270778655982</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.897278860526476</v>
+        <v>-6.906943482642619</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.327462334717798</v>
+        <v>-3.399947248373996</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.32079842706545</v>
+        <v>-4.266779312899335</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-4.441167578503824</v>
+        <v>-4.352266100150894</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3528383523171633</v>
+        <v>-0.3546479633346847</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3218637240701046</v>
+        <v>-0.3248211011435014</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3193218912567867</v>
+        <v>-0.3151424555026685</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1917014295143519</v>
+        <v>-0.1957044711914729</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1945913087163639</v>
+        <v>-0.1927930606489868</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2183633603625921</v>
+        <v>-0.21292289013522</v>
       </c>
     </row>
     <row r="28">
